--- a/src/main/java/testdata/controller.xlsx
+++ b/src/main/java/testdata/controller.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FB5757B6-FEAF-41A3-8384-281E3F463C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AA2D68E1-A58D-4EA1-9E1C-EE836B0059F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{B492219F-0AB6-4253-9049-554553CE6C48}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="29100" windowHeight="16500" activeTab="2" xr2:uid="{B492219F-0AB6-4253-9049-554553CE6C48}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Credentials" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="SearchBus" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O21"/>
+  <oleSize ref="A1:V33"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -455,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8966D1D-3111-4D48-A371-A6A789D36377}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B50161-942B-4D6B-86C5-A39D092E3152}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
